--- a/biology/Botanique/Grenadelle/Grenadelle.xlsx
+++ b/biology/Botanique/Grenadelle/Grenadelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Passiflora ligularis, Grenadille sucrée, Grenadille douce
 La grenadelle, aussi appelée grenadille sucrée ou grenadille douce (Passiflora ligularis), est une espèce de plantes à fleurs appartenant au genre Passiflora (les passiflores) et de la famille des passifloraceae. Elle fait partie des fruits dénommés fruit de la passion. C'est une plante grimpante originaire d'Amérique du Sud. L'épithète ligularis du nom latin vient de sa corolle en ligule.
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La grenadelle est originaire des montagnes des Andes entre la Bolivie et le Venezuela. On en trouve en Argentine et au Mexique mais aussi dans les montagnes tropicales d'Afrique et d'Australie (de 1 700 à 2 600 m) et même à l'Île de la Réunion, en Haïti. Il y en a aussi sur les îles de Nouvelle-Calédonie et de Polynésie française.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La grenadelle a de grandes feuilles cordiformes simples pouvant mesurer 20 cm de long sur 15 cm de large.
 Ses fleurs vert-blanc et mauve sont agréablement parfumées.
@@ -584,7 +600,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principaux pays producteurs sont le Venezuela, la Colombie et Madagascar. Les principaux importateurs sont les États-Unis, le Canada, la Belgique, les Pays-Bas, la Suisse, et l'Espagne.
 </t>
@@ -615,7 +633,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La grenadelle apprécie des climats humides allant de 15 à 18 °C avec 600 à 1 000 mm de pluie annuelle. En extérieur, elle ne peut fructifier qu'en zone chaude (USDA 9b) et ne survit pas à des températures négatives.
 La grenadelle se multiplie bien par semis et, si elle est cultivée dans de bonnes conditions, commencera à produire des fruits vers l'âge de 2 ans.
